--- a/approaches/evaluation_logs/Gen1_PredEx/test-50-evaluation_log-vLLM_kosbu-Llama-3.3-70B-Instruct-AWQ-2025-04-21-2222.xlsx
+++ b/approaches/evaluation_logs/Gen1_PredEx/test-50-evaluation_log-vLLM_kosbu-Llama-3.3-70B-Instruct-AWQ-2025-04-21-2222.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U51"/>
+  <dimension ref="A1:W51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -496,45 +496,55 @@
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>Correct Extracted Predicates with Parents</t>
+          <t>Detected Predicates Doc Parent</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>Correct Extracted Predicates with Related</t>
+          <t>Detected Predicates Doc Related</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
+          <t>Correct Pred Predicates Parents</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Correct Pred Predicates Related</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
           <t>Extracted Objects</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>Gold Standard Objects</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>Correct Extracted Objects</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>Extracted Entities</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>Gold Standard Entities</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>Correct Extracted Entities</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>Result String</t>
         </is>
@@ -584,24 +594,30 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>2</v>
       </c>
       <c r="R2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T2" t="n">
         <v>3</v>
       </c>
-      <c r="U2" t="inlineStr">
+      <c r="U2" t="n">
+        <v>3</v>
+      </c>
+      <c r="V2" t="n">
+        <v>3</v>
+      </c>
+      <c r="W2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 &lt;http://www.wikidata.org/entity/Q25095540&gt; &lt;http://www.wikidata.org/entity/P750&gt; &lt;http://www.wikidata.org/entity/Q1516254&gt; .
@@ -655,24 +671,30 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="S3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T3" t="n">
-        <v>3</v>
-      </c>
-      <c r="U3" t="inlineStr">
+        <v>4</v>
+      </c>
+      <c r="U3" t="n">
+        <v>3</v>
+      </c>
+      <c r="V3" t="n">
+        <v>3</v>
+      </c>
+      <c r="W3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 &lt;http://www.wikidata.org/entity/Q20992419&gt; &lt;http://www.wikidata.org/entity/P276&gt; &lt;http://www.wikidata.org/entity/Q120&gt; .
@@ -726,24 +748,30 @@
         <v>2</v>
       </c>
       <c r="O4" t="n">
+        <v>2</v>
+      </c>
+      <c r="P4" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q4" t="n">
         <v>5</v>
-      </c>
-      <c r="P4" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>3</v>
       </c>
       <c r="R4" t="n">
         <v>5</v>
       </c>
       <c r="S4" t="n">
+        <v>3</v>
+      </c>
+      <c r="T4" t="n">
+        <v>5</v>
+      </c>
+      <c r="U4" t="n">
         <v>6</v>
       </c>
-      <c r="T4" t="n">
-        <v>4</v>
-      </c>
-      <c r="U4" t="inlineStr">
+      <c r="V4" t="n">
+        <v>4</v>
+      </c>
+      <c r="W4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 &lt;http://www.wikidata.org/entity/Q466774&gt; &lt;http://www.wikidata.org/entity/P27&gt; &lt;http://www.wikidata.org/entity/Q142&gt; .
@@ -801,24 +829,30 @@
         <v>1</v>
       </c>
       <c r="O5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q5" t="n">
         <v>6</v>
       </c>
-      <c r="P5" t="n">
+      <c r="R5" t="n">
         <v>6</v>
       </c>
-      <c r="Q5" t="n">
+      <c r="S5" t="n">
         <v>5</v>
       </c>
-      <c r="R5" t="n">
+      <c r="T5" t="n">
         <v>7</v>
       </c>
-      <c r="S5" t="n">
+      <c r="U5" t="n">
         <v>7</v>
       </c>
-      <c r="T5" t="n">
+      <c r="V5" t="n">
         <v>6</v>
       </c>
-      <c r="U5" t="inlineStr">
+      <c r="W5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 &lt;http://www.wikidata.org/entity/Q72697912&gt; &lt;http://www.wikidata.org/entity/P947&gt; &lt;http://www.wikidata.org/entity/Q81725&gt; .
@@ -875,24 +909,30 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>1</v>
       </c>
       <c r="R6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T6" t="n">
         <v>2</v>
       </c>
-      <c r="U6" t="inlineStr">
+      <c r="U6" t="n">
+        <v>2</v>
+      </c>
+      <c r="V6" t="n">
+        <v>2</v>
+      </c>
+      <c r="W6" t="inlineStr">
         <is>
           <t xml:space="preserve">
 &lt;http://www.wikidata.org/entity/Q36771&gt; &lt;http://www.wikidata.org/entity/P19&gt; &lt;http://www.wikidata.org/entity/Q29999&gt; .
@@ -947,21 +987,27 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S7" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
-      <c r="U7" t="inlineStr">
+      <c r="U7" t="n">
+        <v>4</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="inlineStr">
         <is>
           <t>Error code: 400 - {'object': 'error', 'message': "This model's maximum context length is 8192 tokens. However, you requested 8266 tokens in the messages, Please reduce the length of the messages.", 'type': 'BadRequestError', 'param': None, 'code': 400}</t>
         </is>
@@ -1014,7 +1060,7 @@
         <v>1</v>
       </c>
       <c r="P8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q8" t="n">
         <v>1</v>
@@ -1023,12 +1069,18 @@
         <v>2</v>
       </c>
       <c r="S8" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T8" t="n">
         <v>2</v>
       </c>
-      <c r="U8" t="inlineStr">
+      <c r="U8" t="n">
+        <v>3</v>
+      </c>
+      <c r="V8" t="n">
+        <v>2</v>
+      </c>
+      <c r="W8" t="inlineStr">
         <is>
           <t xml:space="preserve">
 &lt;http://www.wikidata.org/entity/Q2226643&gt; &lt;http://www.wikidata.org/entity/P138&gt; &lt;http://www.wikidata.org/entity/Q28937&gt; .
@@ -1080,24 +1132,30 @@
         <v>1</v>
       </c>
       <c r="O9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P9" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>2</v>
+      </c>
+      <c r="R9" t="n">
         <v>6</v>
       </c>
-      <c r="Q9" t="n">
-        <v>1</v>
-      </c>
-      <c r="R9" t="n">
-        <v>3</v>
-      </c>
       <c r="S9" t="n">
+        <v>1</v>
+      </c>
+      <c r="T9" t="n">
+        <v>3</v>
+      </c>
+      <c r="U9" t="n">
         <v>7</v>
       </c>
-      <c r="T9" t="n">
-        <v>3</v>
-      </c>
-      <c r="U9" t="inlineStr">
+      <c r="V9" t="n">
+        <v>3</v>
+      </c>
+      <c r="W9" t="inlineStr">
         <is>
           <t xml:space="preserve">
 &lt;http://www.wikidata.org/entity/Q2808&gt; &lt;http://www.wikidata.org/entity/P1433&gt; &lt;http://www.wikidata.org/entity/Q3939773&gt; .
@@ -1151,24 +1209,30 @@
         <v>5</v>
       </c>
       <c r="O10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P10" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="Q10" t="n">
         <v>5</v>
       </c>
       <c r="R10" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="S10" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="T10" t="n">
         <v>6</v>
       </c>
-      <c r="U10" t="inlineStr">
+      <c r="U10" t="n">
+        <v>8</v>
+      </c>
+      <c r="V10" t="n">
+        <v>6</v>
+      </c>
+      <c r="W10" t="inlineStr">
         <is>
           <t xml:space="preserve">
 &lt;http://www.wikidata.org/entity/Q6782514&gt; &lt;http://www.wikidata.org/entity/P276&gt; &lt;http://www.wikidata.org/entity/Q1364658&gt; .
@@ -1225,24 +1289,30 @@
         <v>2</v>
       </c>
       <c r="O11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P11" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>3</v>
+      </c>
+      <c r="R11" t="n">
         <v>5</v>
       </c>
-      <c r="Q11" t="n">
-        <v>2</v>
-      </c>
-      <c r="R11" t="n">
-        <v>3</v>
-      </c>
       <c r="S11" t="n">
+        <v>2</v>
+      </c>
+      <c r="T11" t="n">
+        <v>3</v>
+      </c>
+      <c r="U11" t="n">
         <v>6</v>
       </c>
-      <c r="T11" t="n">
-        <v>3</v>
-      </c>
-      <c r="U11" t="inlineStr">
+      <c r="V11" t="n">
+        <v>3</v>
+      </c>
+      <c r="W11" t="inlineStr">
         <is>
           <t xml:space="preserve">
 &lt;http://www.wikidata.org/entity/Q85563&gt; &lt;http://www.wikidata.org/entity/P26&gt; &lt;http://www.wikidata.org/entity/Q58284&gt; .
@@ -1297,24 +1367,30 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>2</v>
+      </c>
+      <c r="R12" t="n">
         <v>5</v>
       </c>
-      <c r="Q12" t="n">
-        <v>2</v>
-      </c>
-      <c r="R12" t="n">
-        <v>3</v>
-      </c>
       <c r="S12" t="n">
+        <v>2</v>
+      </c>
+      <c r="T12" t="n">
+        <v>3</v>
+      </c>
+      <c r="U12" t="n">
         <v>6</v>
       </c>
-      <c r="T12" t="n">
-        <v>3</v>
-      </c>
-      <c r="U12" t="inlineStr">
+      <c r="V12" t="n">
+        <v>3</v>
+      </c>
+      <c r="W12" t="inlineStr">
         <is>
           <t xml:space="preserve">
 &lt;http://www.wikidata.org/entity/Q5395743&gt; &lt;http://www.wikidata.org/prop/direct/P407&gt; &lt;http://www.wikidata.org/entity/Q1321&gt; .
@@ -1373,18 +1449,24 @@
         <v>2</v>
       </c>
       <c r="Q13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S13" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T13" t="n">
         <v>3</v>
       </c>
-      <c r="U13" t="inlineStr">
+      <c r="U13" t="n">
+        <v>3</v>
+      </c>
+      <c r="V13" t="n">
+        <v>3</v>
+      </c>
+      <c r="W13" t="inlineStr">
         <is>
           <t xml:space="preserve">
 &lt;http://www.wikidata.org/entity/Q271108&gt; &lt;http://www.wikidata.org/entity/P710&gt; &lt;http://www.wikidata.org/entity/Q516760&gt; .
@@ -1440,7 +1522,7 @@
         <v>2</v>
       </c>
       <c r="P14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q14" t="n">
         <v>2</v>
@@ -1449,12 +1531,18 @@
         <v>3</v>
       </c>
       <c r="S14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T14" t="n">
         <v>3</v>
       </c>
-      <c r="U14" t="inlineStr">
+      <c r="U14" t="n">
+        <v>3</v>
+      </c>
+      <c r="V14" t="n">
+        <v>3</v>
+      </c>
+      <c r="W14" t="inlineStr">
         <is>
           <t xml:space="preserve">
 &lt;http://www.wikidata.org/entity/Q7992209&gt; &lt;http://www.wikidata.org/entity/P4661&gt; &lt;http://www.wikidata.org/entity/Q3561541&gt; .
@@ -1508,24 +1596,30 @@
         <v>1</v>
       </c>
       <c r="O15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S15" t="n">
+        <v>0</v>
+      </c>
+      <c r="T15" t="n">
+        <v>3</v>
+      </c>
+      <c r="U15" t="n">
         <v>5</v>
       </c>
-      <c r="T15" t="n">
-        <v>0</v>
-      </c>
-      <c r="U15" t="inlineStr">
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="inlineStr">
         <is>
           <t xml:space="preserve">
 &lt;http://www.wikidata.org/entity/Q30&gt; &lt;http://www.wikidata.org/entity/P30&gt; &lt;http://www.wikidata.org/entity/Q183&gt; .
@@ -1587,15 +1681,21 @@
         <v>1</v>
       </c>
       <c r="R16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T16" t="n">
         <v>2</v>
       </c>
-      <c r="U16" t="inlineStr">
+      <c r="U16" t="n">
+        <v>2</v>
+      </c>
+      <c r="V16" t="n">
+        <v>2</v>
+      </c>
+      <c r="W16" t="inlineStr">
         <is>
           <t xml:space="preserve">
 &lt;http://www.wikidata.org/entity/Q3311362&gt; &lt;http://www.wikidata.org/entity/P276&gt; &lt;http://www.wikidata.org/entity/Q66117&gt; .
@@ -1652,21 +1752,27 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S17" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
-      <c r="U17" t="inlineStr">
+      <c r="U17" t="n">
+        <v>4</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="inlineStr">
         <is>
           <t>Error code: 400 - {'object': 'error', 'message': "This model's maximum context length is 8192 tokens. However, you requested 8438 tokens in the messages, Please reduce the length of the messages.", 'type': 'BadRequestError', 'param': None, 'code': 400}</t>
         </is>
@@ -1716,24 +1822,30 @@
         <v>2</v>
       </c>
       <c r="O18" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q18" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R18" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S18" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T18" t="n">
         <v>4</v>
       </c>
-      <c r="U18" t="inlineStr">
+      <c r="U18" t="n">
+        <v>4</v>
+      </c>
+      <c r="V18" t="n">
+        <v>4</v>
+      </c>
+      <c r="W18" t="inlineStr">
         <is>
           <t xml:space="preserve">
 &lt;http://www.wikidata.org/entity/Q607380&gt; &lt;http://www.wikidata.org/entity/P183&gt; &lt;http://www.wikidata.org/entity/Q664&gt; .
@@ -1790,24 +1902,30 @@
         <v>3</v>
       </c>
       <c r="O19" t="n">
+        <v>3</v>
+      </c>
+      <c r="P19" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q19" t="n">
         <v>5</v>
       </c>
-      <c r="P19" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>4</v>
-      </c>
       <c r="R19" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S19" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T19" t="n">
         <v>5</v>
       </c>
-      <c r="U19" t="inlineStr">
+      <c r="U19" t="n">
+        <v>5</v>
+      </c>
+      <c r="V19" t="n">
+        <v>5</v>
+      </c>
+      <c r="W19" t="inlineStr">
         <is>
           <t xml:space="preserve">
 &lt;http://www.wikidata.org/entity/Q5686841&gt; &lt;http://www.wikidata.org/entity/P361&gt; &lt;http://www.wikidata.org/entity/Q794&gt; .
@@ -1872,24 +1990,30 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R20" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T20" t="n">
-        <v>2</v>
-      </c>
-      <c r="U20" t="inlineStr">
+        <v>3</v>
+      </c>
+      <c r="U20" t="n">
+        <v>2</v>
+      </c>
+      <c r="V20" t="n">
+        <v>2</v>
+      </c>
+      <c r="W20" t="inlineStr">
         <is>
           <t xml:space="preserve">
 &lt;http://www.wikidata.org/entity/Q20671544&gt; &lt;http://www.wikidata.org/prop/direct/P106&gt; &lt;http://www.wikidata.org/entity/Q27914&gt; .
@@ -1942,24 +2066,30 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>4</v>
+      </c>
+      <c r="R21" t="n">
         <v>7</v>
       </c>
-      <c r="Q21" t="n">
-        <v>4</v>
-      </c>
-      <c r="R21" t="n">
-        <v>6</v>
-      </c>
       <c r="S21" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="T21" t="n">
         <v>6</v>
       </c>
-      <c r="U21" t="inlineStr">
+      <c r="U21" t="n">
+        <v>8</v>
+      </c>
+      <c r="V21" t="n">
+        <v>6</v>
+      </c>
+      <c r="W21" t="inlineStr">
         <is>
           <t xml:space="preserve">
 &lt;http://www.wikidata.org/entity/Q3048624&gt; &lt;http://www.wikidata.org/prop/direct/P495&gt; &lt;http://www.wikidata.org/entity/Q16&gt; .
@@ -2015,24 +2145,30 @@
         <v>1</v>
       </c>
       <c r="O22" t="n">
+        <v>1</v>
+      </c>
+      <c r="P22" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q22" t="n">
         <v>5</v>
       </c>
-      <c r="P22" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>1</v>
-      </c>
       <c r="R22" t="n">
+        <v>1</v>
+      </c>
+      <c r="S22" t="n">
+        <v>1</v>
+      </c>
+      <c r="T22" t="n">
         <v>5</v>
       </c>
-      <c r="S22" t="n">
-        <v>2</v>
-      </c>
-      <c r="T22" t="n">
-        <v>2</v>
-      </c>
-      <c r="U22" t="inlineStr">
+      <c r="U22" t="n">
+        <v>2</v>
+      </c>
+      <c r="V22" t="n">
+        <v>2</v>
+      </c>
+      <c r="W22" t="inlineStr">
         <is>
           <t xml:space="preserve">
 &lt;http://www.wikidata.org/entity/Q17052475&gt; &lt;http://www.wikidata.org/entity/P279&gt; &lt;http://www.wikidata.org/entity/Q11348&gt; .
@@ -2092,24 +2228,30 @@
         <v>2</v>
       </c>
       <c r="O23" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P23" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q23" t="n">
         <v>3</v>
       </c>
       <c r="R23" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S23" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T23" t="n">
         <v>4</v>
       </c>
-      <c r="U23" t="inlineStr">
+      <c r="U23" t="n">
+        <v>4</v>
+      </c>
+      <c r="V23" t="n">
+        <v>4</v>
+      </c>
+      <c r="W23" t="inlineStr">
         <is>
           <t xml:space="preserve">
 &lt;http://www.wikidata.org/entity/Q18036690&gt; &lt;http://www.wikidata.org/entity/P276&gt; &lt;http://www.wikidata.org/entity/Q430258&gt; .
@@ -2163,24 +2305,30 @@
         <v>1</v>
       </c>
       <c r="O24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q24" t="n">
         <v>2</v>
       </c>
       <c r="R24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T24" t="n">
         <v>3</v>
       </c>
-      <c r="U24" t="inlineStr">
+      <c r="U24" t="n">
+        <v>3</v>
+      </c>
+      <c r="V24" t="n">
+        <v>3</v>
+      </c>
+      <c r="W24" t="inlineStr">
         <is>
           <t xml:space="preserve">
 &lt;http://www.wikidata.org/entity/Q188197&gt; &lt;http://www.wikidata.org/entity/P2522&gt; &lt;http://www.wikidata.org/entity/Q1856183&gt; .
@@ -2236,7 +2384,7 @@
         <v>2</v>
       </c>
       <c r="P25" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q25" t="n">
         <v>2</v>
@@ -2245,12 +2393,18 @@
         <v>3</v>
       </c>
       <c r="S25" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="T25" t="n">
         <v>3</v>
       </c>
-      <c r="U25" t="inlineStr">
+      <c r="U25" t="n">
+        <v>4</v>
+      </c>
+      <c r="V25" t="n">
+        <v>3</v>
+      </c>
+      <c r="W25" t="inlineStr">
         <is>
           <t xml:space="preserve">
 &lt;http://www.wikidata.org/entity/Q5554167&gt; &lt;http://www.wikidata.org/entity/P750&gt; &lt;http://www.wikidata.org/entity/Q520445&gt; .
@@ -2306,21 +2460,31 @@
         <v>0</v>
       </c>
       <c r="P26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>0</v>
+      </c>
+      <c r="R26" t="n">
         <v>7</v>
       </c>
-      <c r="Q26" t="n">
-        <v>0</v>
-      </c>
-      <c r="R26" t="n">
-        <v>0</v>
-      </c>
       <c r="S26" t="n">
+        <v>0</v>
+      </c>
+      <c r="T26" t="n">
+        <v>0</v>
+      </c>
+      <c r="U26" t="n">
         <v>7</v>
       </c>
-      <c r="T26" t="n">
-        <v>0</v>
-      </c>
-      <c r="U26" t="inlineStr"/>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -2369,21 +2533,27 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="S27" t="n">
+        <v>0</v>
+      </c>
+      <c r="T27" t="n">
+        <v>0</v>
+      </c>
+      <c r="U27" t="n">
         <v>5</v>
       </c>
-      <c r="T27" t="n">
-        <v>0</v>
-      </c>
-      <c r="U27" t="inlineStr">
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="inlineStr">
         <is>
           <t xml:space="preserve">
 &lt;http://www.wikidata.org/entity/Q2094579&gt; &lt;http://www.wikidata.org/prop/direct/P50&gt; &lt;http://www.wikidata.org/entity/Q5546527&gt; .
@@ -2446,15 +2616,21 @@
         <v>2</v>
       </c>
       <c r="R28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T28" t="n">
         <v>3</v>
       </c>
-      <c r="U28" t="inlineStr">
+      <c r="U28" t="n">
+        <v>3</v>
+      </c>
+      <c r="V28" t="n">
+        <v>3</v>
+      </c>
+      <c r="W28" t="inlineStr">
         <is>
           <t xml:space="preserve">
 &lt;http://www.wikidata.org/entity/Q22082365&gt; &lt;http://www.wikidata.org/entity/P276&gt; &lt;http://www.wikidata.org/entity/Q965&gt; .
@@ -2507,24 +2683,30 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="n">
         <v>6</v>
       </c>
-      <c r="P29" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>4</v>
-      </c>
       <c r="R29" t="n">
+        <v>4</v>
+      </c>
+      <c r="S29" t="n">
+        <v>4</v>
+      </c>
+      <c r="T29" t="n">
         <v>7</v>
       </c>
-      <c r="S29" t="n">
+      <c r="U29" t="n">
         <v>5</v>
       </c>
-      <c r="T29" t="n">
+      <c r="V29" t="n">
         <v>5</v>
       </c>
-      <c r="U29" t="inlineStr">
+      <c r="W29" t="inlineStr">
         <is>
           <t xml:space="preserve">
 &lt;http://www.wikidata.org/entity/Q16926803&gt; &lt;http://www.wikidata.org/entity/P937&gt; &lt;http://www.wikidata.org/entity/Q2060470&gt; .
@@ -2586,21 +2768,27 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="S30" t="n">
+        <v>0</v>
+      </c>
+      <c r="T30" t="n">
+        <v>0</v>
+      </c>
+      <c r="U30" t="n">
         <v>5</v>
       </c>
-      <c r="T30" t="n">
-        <v>0</v>
-      </c>
-      <c r="U30" t="inlineStr">
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="inlineStr">
         <is>
           <t>Error code: 400 - {'object': 'error', 'message': "This model's maximum context length is 8192 tokens. However, you requested 8470 tokens in the messages, Please reduce the length of the messages.", 'type': 'BadRequestError', 'param': None, 'code': 400}</t>
         </is>
@@ -2650,24 +2838,30 @@
         <v>3</v>
       </c>
       <c r="O31" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P31" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q31" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R31" t="n">
+        <v>3</v>
+      </c>
+      <c r="S31" t="n">
+        <v>3</v>
+      </c>
+      <c r="T31" t="n">
         <v>5</v>
       </c>
-      <c r="S31" t="n">
-        <v>4</v>
-      </c>
-      <c r="T31" t="n">
-        <v>4</v>
-      </c>
-      <c r="U31" t="inlineStr">
+      <c r="U31" t="n">
+        <v>4</v>
+      </c>
+      <c r="V31" t="n">
+        <v>4</v>
+      </c>
+      <c r="W31" t="inlineStr">
         <is>
           <t xml:space="preserve">
 &lt;http://www.wikidata.org/entity/Q14707624&gt; &lt;http://www.wikidata.org/entity/P1408&gt; &lt;http://www.wikidata.org/entity/Q304801&gt; .
@@ -2729,24 +2923,30 @@
         <v>2</v>
       </c>
       <c r="O32" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P32" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q32" t="n">
         <v>2</v>
       </c>
       <c r="R32" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S32" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T32" t="n">
         <v>3</v>
       </c>
-      <c r="U32" t="inlineStr">
+      <c r="U32" t="n">
+        <v>3</v>
+      </c>
+      <c r="V32" t="n">
+        <v>3</v>
+      </c>
+      <c r="W32" t="inlineStr">
         <is>
           <t xml:space="preserve">
 &lt;http://www.wikidata.org/entity/Q64876878&gt; &lt;http://www.wikidata.org/entity/P725&gt; &lt;http://www.wikidata.org/entity/Q262170&gt; .
@@ -2799,24 +2999,30 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>4</v>
+      </c>
+      <c r="R33" t="n">
         <v>6</v>
       </c>
-      <c r="Q33" t="n">
-        <v>4</v>
-      </c>
-      <c r="R33" t="n">
-        <v>5</v>
-      </c>
       <c r="S33" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="T33" t="n">
         <v>5</v>
       </c>
-      <c r="U33" t="inlineStr">
+      <c r="U33" t="n">
+        <v>7</v>
+      </c>
+      <c r="V33" t="n">
+        <v>5</v>
+      </c>
+      <c r="W33" t="inlineStr">
         <is>
           <t xml:space="preserve">
 &lt;http://www.wikidata.org/entity/Q1240173&gt; &lt;http://www.wikidata.org/prop/direct/P131&gt; &lt;http://www.wikidata.org/entity/Q1088790&gt; .
@@ -2873,24 +3079,30 @@
         <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
         <v>1</v>
       </c>
       <c r="R34" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S34" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="T34" t="n">
         <v>2</v>
       </c>
-      <c r="U34" t="inlineStr">
+      <c r="U34" t="n">
+        <v>4</v>
+      </c>
+      <c r="V34" t="n">
+        <v>2</v>
+      </c>
+      <c r="W34" t="inlineStr">
         <is>
           <t xml:space="preserve">
 &lt;http://www.wikidata.org/entity/Q822946&gt; &lt;http://www.wikidata.org/prop/direct/P161&gt; &lt;http://www.wikidata.org/entity/Q1366759&gt; .
@@ -2942,24 +3154,30 @@
         <v>1</v>
       </c>
       <c r="O35" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P35" t="n">
         <v>1</v>
       </c>
       <c r="Q35" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R35" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S35" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T35" t="n">
         <v>2</v>
       </c>
-      <c r="U35" t="inlineStr">
+      <c r="U35" t="n">
+        <v>2</v>
+      </c>
+      <c r="V35" t="n">
+        <v>2</v>
+      </c>
+      <c r="W35" t="inlineStr">
         <is>
           <t xml:space="preserve">
 &lt;http://www.wikidata.org/entity/Q41792848&gt; &lt;http://www.wikidata.org/entity/P2515&gt; &lt;http://www.wikidata.org/entity/Q5072388&gt; .
@@ -3013,24 +3231,30 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R36" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S36" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T36" t="n">
-        <v>2</v>
-      </c>
-      <c r="U36" t="inlineStr">
+        <v>3</v>
+      </c>
+      <c r="U36" t="n">
+        <v>3</v>
+      </c>
+      <c r="V36" t="n">
+        <v>2</v>
+      </c>
+      <c r="W36" t="inlineStr">
         <is>
           <t xml:space="preserve">
 &lt;http://www.wikidata.org/entity/Q1490434&gt; &lt;http://www.wikidata.org/prop/direct/P31&gt; &lt;http://www.wikidata.org/entity/Q42973&gt; .
@@ -3083,10 +3307,10 @@
         <v>1</v>
       </c>
       <c r="O37" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P37" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q37" t="n">
         <v>2</v>
@@ -3095,12 +3319,18 @@
         <v>3</v>
       </c>
       <c r="S37" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="T37" t="n">
         <v>3</v>
       </c>
-      <c r="U37" t="inlineStr">
+      <c r="U37" t="n">
+        <v>4</v>
+      </c>
+      <c r="V37" t="n">
+        <v>3</v>
+      </c>
+      <c r="W37" t="inlineStr">
         <is>
           <t xml:space="preserve">
 &lt;http://www.wikidata.org/entity/Q2616869&gt; &lt;http://www.wikidata.org/prop/direct/P1433&gt; &lt;http://www.wikidata.org/entity/Q1126800&gt; .
@@ -3153,24 +3383,30 @@
         <v>2</v>
       </c>
       <c r="O38" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="P38" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Q38" t="n">
         <v>4</v>
       </c>
       <c r="R38" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S38" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T38" t="n">
         <v>5</v>
       </c>
-      <c r="U38" t="inlineStr">
+      <c r="U38" t="n">
+        <v>5</v>
+      </c>
+      <c r="V38" t="n">
+        <v>5</v>
+      </c>
+      <c r="W38" t="inlineStr">
         <is>
           <t xml:space="preserve">
 &lt;http://www.wikidata.org/entity/Q6803534&gt; &lt;http://www.wikidata.org/entity/P31&gt; &lt;http://www.wikidata.org/entity/Q1320721&gt; .
@@ -3234,15 +3470,21 @@
         <v>2</v>
       </c>
       <c r="R39" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S39" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T39" t="n">
         <v>3</v>
       </c>
-      <c r="U39" t="inlineStr">
+      <c r="U39" t="n">
+        <v>3</v>
+      </c>
+      <c r="V39" t="n">
+        <v>3</v>
+      </c>
+      <c r="W39" t="inlineStr">
         <is>
           <t xml:space="preserve">
 &lt;http://www.wikidata.org/entity/Q907827&gt; &lt;http://www.wikidata.org/entity/P276&gt; &lt;http://www.wikidata.org/entity/Q183&gt; .
@@ -3295,24 +3537,30 @@
         <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
         <v>1</v>
       </c>
       <c r="R40" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S40" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T40" t="n">
         <v>2</v>
       </c>
-      <c r="U40" t="inlineStr">
+      <c r="U40" t="n">
+        <v>2</v>
+      </c>
+      <c r="V40" t="n">
+        <v>2</v>
+      </c>
+      <c r="W40" t="inlineStr">
         <is>
           <t xml:space="preserve">
 &lt;http://www.wikidata.org/entity/Q1064344&gt; &lt;http://www.wikidata.org/entity/P527&gt; &lt;http://www.wikidata.org/entity/Q1406&gt; .
@@ -3374,15 +3622,21 @@
         <v>2</v>
       </c>
       <c r="R41" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S41" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T41" t="n">
         <v>3</v>
       </c>
-      <c r="U41" t="inlineStr">
+      <c r="U41" t="n">
+        <v>3</v>
+      </c>
+      <c r="V41" t="n">
+        <v>3</v>
+      </c>
+      <c r="W41" t="inlineStr">
         <is>
           <t xml:space="preserve">
 &lt;http://www.wikidata.org/entity/Q47554&gt; &lt;http://www.wikidata.org/entity/P1376&gt; &lt;http://www.wikidata.org/entity/Q54153&gt; .
@@ -3435,24 +3689,30 @@
         <v>4</v>
       </c>
       <c r="O42" t="n">
+        <v>3</v>
+      </c>
+      <c r="P42" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q42" t="n">
         <v>6</v>
       </c>
-      <c r="P42" t="n">
+      <c r="R42" t="n">
         <v>6</v>
       </c>
-      <c r="Q42" t="n">
+      <c r="S42" t="n">
         <v>5</v>
       </c>
-      <c r="R42" t="n">
+      <c r="T42" t="n">
         <v>7</v>
       </c>
-      <c r="S42" t="n">
+      <c r="U42" t="n">
         <v>7</v>
       </c>
-      <c r="T42" t="n">
+      <c r="V42" t="n">
         <v>6</v>
       </c>
-      <c r="U42" t="inlineStr">
+      <c r="W42" t="inlineStr">
         <is>
           <t xml:space="preserve">
 &lt;http://www.wikidata.org/entity/Q54322348&gt; &lt;http://www.wikidata.org/entity/P276&gt; &lt;http://www.wikidata.org/entity/Q16568&gt; .
@@ -3512,21 +3772,27 @@
         <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S43" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
-      <c r="U43" t="inlineStr">
+      <c r="U43" t="n">
+        <v>3</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="inlineStr">
         <is>
           <t xml:space="preserve">
 &lt;http://www.wikidata.org/entity/Q87412161&gt; &lt;http://www.wikidata.org/entity/P3373&gt; &lt;http://www.wikidata.org/entity/Q95994024&gt; .
@@ -3579,24 +3845,30 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R44" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S44" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T44" t="n">
-        <v>2</v>
-      </c>
-      <c r="U44" t="inlineStr">
+        <v>3</v>
+      </c>
+      <c r="U44" t="n">
+        <v>3</v>
+      </c>
+      <c r="V44" t="n">
+        <v>2</v>
+      </c>
+      <c r="W44" t="inlineStr">
         <is>
           <t xml:space="preserve">
 &lt;http://www.wikidata.org/entity/Q29644512&gt; &lt;http://www.wikidata.org/entity/Q152074&gt; "2017" .
@@ -3652,21 +3924,27 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>0</v>
+      </c>
+      <c r="R45" t="n">
         <v>9</v>
       </c>
-      <c r="Q45" t="n">
-        <v>0</v>
-      </c>
-      <c r="R45" t="n">
-        <v>0</v>
-      </c>
       <c r="S45" t="n">
+        <v>0</v>
+      </c>
+      <c r="T45" t="n">
+        <v>0</v>
+      </c>
+      <c r="U45" t="n">
         <v>10</v>
       </c>
-      <c r="T45" t="n">
-        <v>0</v>
-      </c>
-      <c r="U45" t="inlineStr">
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="inlineStr">
         <is>
           <t>Error code: 400 - {'object': 'error', 'message': "This model's maximum context length is 8192 tokens. However, you requested 8473 tokens in the messages, Please reduce the length of the messages.", 'type': 'BadRequestError', 'param': None, 'code': 400}</t>
         </is>
@@ -3716,24 +3994,30 @@
         <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R46" t="n">
+        <v>3</v>
+      </c>
+      <c r="S46" t="n">
+        <v>3</v>
+      </c>
+      <c r="T46" t="n">
         <v>5</v>
       </c>
-      <c r="S46" t="n">
-        <v>4</v>
-      </c>
-      <c r="T46" t="n">
-        <v>4</v>
-      </c>
-      <c r="U46" t="inlineStr">
+      <c r="U46" t="n">
+        <v>4</v>
+      </c>
+      <c r="V46" t="n">
+        <v>4</v>
+      </c>
+      <c r="W46" t="inlineStr">
         <is>
           <t xml:space="preserve">
 &lt;http://www.wikidata.org/entity/Q92560&gt; &lt;http://www.wikidata.org/prop/direct/P31&gt; &lt;http://www.wikidata.org/entity/Q4830453&gt; .
@@ -3788,24 +4072,30 @@
         <v>0</v>
       </c>
       <c r="O47" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="P47" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Q47" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R47" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S47" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="T47" t="n">
-        <v>3</v>
-      </c>
-      <c r="U47" t="inlineStr">
+        <v>4</v>
+      </c>
+      <c r="U47" t="n">
+        <v>4</v>
+      </c>
+      <c r="V47" t="n">
+        <v>3</v>
+      </c>
+      <c r="W47" t="inlineStr">
         <is>
           <t xml:space="preserve">
 &lt;http://www.wikidata.org/entity/Q18036732&gt; &lt;http://www.wikidata.org/prop/direct/P686&gt; &lt;http://www.wikidata.org/entity/Q753805&gt; .
@@ -3861,24 +4151,30 @@
         <v>1</v>
       </c>
       <c r="O48" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P48" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q48" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R48" t="n">
         <v>2</v>
       </c>
       <c r="S48" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T48" t="n">
         <v>2</v>
       </c>
-      <c r="U48" t="inlineStr">
+      <c r="U48" t="n">
+        <v>3</v>
+      </c>
+      <c r="V48" t="n">
+        <v>2</v>
+      </c>
+      <c r="W48" t="inlineStr">
         <is>
           <t xml:space="preserve">
 &lt;http://www.wikidata.org/entity/Q977911&gt; &lt;http://www.wikidata.org/entity/P47&gt; &lt;http://www.wikidata.org/entity/Q979352&gt; .
@@ -3931,24 +4227,30 @@
         <v>4</v>
       </c>
       <c r="O49" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P49" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>2</v>
+      </c>
+      <c r="R49" t="n">
         <v>6</v>
       </c>
-      <c r="Q49" t="n">
-        <v>2</v>
-      </c>
-      <c r="R49" t="n">
-        <v>2</v>
-      </c>
       <c r="S49" t="n">
+        <v>2</v>
+      </c>
+      <c r="T49" t="n">
+        <v>2</v>
+      </c>
+      <c r="U49" t="n">
         <v>7</v>
       </c>
-      <c r="T49" t="n">
-        <v>2</v>
-      </c>
-      <c r="U49" t="inlineStr">
+      <c r="V49" t="n">
+        <v>2</v>
+      </c>
+      <c r="W49" t="inlineStr">
         <is>
           <t xml:space="preserve">
 &lt;http://www.wikidata.org/entity/Q173071&gt; &lt;http://www.wikidata.org/entity/P541&gt; &lt;http://www.wikidata.org/entity/Q170386&gt; .
@@ -4005,24 +4307,30 @@
         <v>0</v>
       </c>
       <c r="O50" t="n">
+        <v>0</v>
+      </c>
+      <c r="P50" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q50" t="n">
         <v>6</v>
       </c>
-      <c r="P50" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q50" t="n">
-        <v>3</v>
-      </c>
       <c r="R50" t="n">
+        <v>3</v>
+      </c>
+      <c r="S50" t="n">
+        <v>3</v>
+      </c>
+      <c r="T50" t="n">
         <v>6</v>
       </c>
-      <c r="S50" t="n">
-        <v>4</v>
-      </c>
-      <c r="T50" t="n">
-        <v>4</v>
-      </c>
-      <c r="U50" t="inlineStr">
+      <c r="U50" t="n">
+        <v>4</v>
+      </c>
+      <c r="V50" t="n">
+        <v>4</v>
+      </c>
+      <c r="W50" t="inlineStr">
         <is>
           <t xml:space="preserve">
 &lt;http://www.wikidata.org/entity/Q2822458&gt; &lt;http://www.wikidata.org/prop/direct/P131&gt; &lt;http://www.wikidata.org/entity/Q649&gt; .
@@ -4089,15 +4397,21 @@
         <v>1</v>
       </c>
       <c r="R51" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S51" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T51" t="n">
         <v>2</v>
       </c>
-      <c r="U51" t="inlineStr">
+      <c r="U51" t="n">
+        <v>2</v>
+      </c>
+      <c r="V51" t="n">
+        <v>2</v>
+      </c>
+      <c r="W51" t="inlineStr">
         <is>
           <t xml:space="preserve">
 &lt;http://www.wikidata.org/entity/Q2362697&gt; &lt;http://www.wikidata.org/entity/P556&gt; &lt;http://www.wikidata.org/entity/Q503601&gt; .
